--- a/medicine/Enfance/Jacques_Duquennoy/Jacques_Duquennoy.xlsx
+++ b/medicine/Enfance/Jacques_Duquennoy/Jacques_Duquennoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Duquennoy, né le 29 juin 1953 à Corbie (Somme), est un auteur et illustrateur français vivant à Amiens.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à l'Institut d'art d'Amiens et à l'université de Paris I, Jacques Duquennoy devient, entre autres, instituteur maître auxiliaire, agent commercial de matériel pédagogique dans les écoles et éditeur. Il publie en 1994 son premier livre pour la jeunesse (Le Dîner Fantôme) et se consacre désormais entièrement à cette activité[1]. Après la série des Fantôme, son premier personnage, Jacques Duquennoy crée Petit Clown, Zazou et Léopold, Camille la girafe, ...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à l'Institut d'art d'Amiens et à l'université de Paris I, Jacques Duquennoy devient, entre autres, instituteur maître auxiliaire, agent commercial de matériel pédagogique dans les écoles et éditeur. Il publie en 1994 son premier livre pour la jeunesse (Le Dîner Fantôme) et se consacre désormais entièrement à cette activité. Après la série des Fantôme, son premier personnage, Jacques Duquennoy crée Petit Clown, Zazou et Léopold, Camille la girafe, ...
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Dîner fantôme, Albin Michel Jeunesse, 1994  (ISBN 2226064311)
 Les Fantômes au Loch-Ness, Albin Michel Jeunesse, 1996  (ISBN 2226071202)
